--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1976914.189516042</v>
+        <v>2092452.780458378</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12458824.03133925</v>
+        <v>12463925.44488782</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9784117.517004516</v>
+        <v>9783123.223058084</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="G2" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="H2" t="n">
         <v>28.33592091243867</v>
-      </c>
-      <c r="F2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="G2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>127.2378420788162</v>
       </c>
       <c r="W3" t="n">
-        <v>89.48249960344565</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -838,7 +840,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>112.7516665411925</v>
       </c>
       <c r="V4" t="n">
-        <v>67.059159328044</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>117.5857992879388</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>161.5777294699624</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537523</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537523</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969026</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537523</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277721</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736376</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>117.0285186518804</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>106.0855909804023</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.80093230723474</v>
       </c>
       <c r="I7" t="n">
-        <v>56.33104179564521</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057571</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573322</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704886</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>313.1707408428821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>151.973757489587</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.79482782095089</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>94.29180769719211</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>25.42862793155172</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.593259662272882</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.48020453259603</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>254.5882286452766</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>137.9640996397618</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>117.4665281367401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>98.84732537601442</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>244.6418937426531</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>106.1949878935057</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.1095818503219</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
-        <v>178.8757728051417</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>139.6152205166466</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787976815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.616430926768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>27.0291980517616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>92.87435055577281</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9815576456783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.1095818503224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>24.8326660635311</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="C2" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="D2" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="E2" t="n">
-        <v>710.0001061843508</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678659</v>
+        <v>359.7826784871778</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036628</v>
       </c>
     </row>
     <row r="3">
@@ -4404,46 +4406,46 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>571.6362168389248</v>
       </c>
       <c r="T3" t="n">
-        <v>533.4995072678432</v>
+        <v>382.2164318224399</v>
       </c>
       <c r="U3" t="n">
-        <v>344.0797222513584</v>
+        <v>192.7966468059549</v>
       </c>
       <c r="V3" t="n">
-        <v>154.6599372348735</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="W3" t="n">
         <v>64.27357399906981</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>489.569188394361</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="C4" t="n">
-        <v>320.6330054664542</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="D4" t="n">
-        <v>320.6330054664542</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="E4" t="n">
-        <v>320.6330054664542</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>489.3218289035392</v>
       </c>
       <c r="G4" t="n">
         <v>320.6330054664542</v>
@@ -4486,52 +4488,52 @@
         <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349386</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>285.9838492295955</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242524</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608026</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846277</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681429</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="V4" t="n">
-        <v>489.569188394361</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="W4" t="n">
-        <v>489.569188394361</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="X4" t="n">
-        <v>489.569188394361</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="Y4" t="n">
-        <v>489.569188394361</v>
+        <v>636.2117764014496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.6632416022264</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="C5" t="n">
-        <v>896.6632416022264</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="D5" t="n">
-        <v>896.6632416022264</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="E5" t="n">
-        <v>733.4534138547897</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="F5" t="n">
-        <v>380.695904305545</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630019</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630019</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630019</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874483</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620508</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458625</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973769</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365671</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477523</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169723</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815009</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815009</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151471</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1249.420751151471</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1249.420751151471</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="V5" t="n">
-        <v>1249.420751151471</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="W5" t="n">
-        <v>1249.420751151471</v>
+        <v>979.9409117945731</v>
       </c>
       <c r="X5" t="n">
-        <v>896.6632416022264</v>
+        <v>979.9409117945731</v>
       </c>
       <c r="Y5" t="n">
-        <v>896.6632416022264</v>
+        <v>979.9409117945731</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286.1153240069852</v>
+        <v>636.3505964147359</v>
       </c>
       <c r="C6" t="n">
-        <v>286.1153240069852</v>
+        <v>461.8975671336089</v>
       </c>
       <c r="D6" t="n">
-        <v>286.1153240069852</v>
+        <v>461.8975671336089</v>
       </c>
       <c r="E6" t="n">
-        <v>126.8778690015297</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="F6" t="n">
-        <v>126.8778690015297</v>
+        <v>302.6601121281534</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8778690015297</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630019</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630019</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>165.5479665784347</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>265.5449014249401</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>446.3256618694511</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>676.6451506028613</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>927.4691557817642</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1134.704322874846</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1281.695748398829</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815009</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815009</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.254262387092</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1055.089856110104</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>936.8792312092146</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>701.7271229774719</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="W6" t="n">
-        <v>701.7271229774719</v>
+        <v>1012.417433640337</v>
       </c>
       <c r="X6" t="n">
-        <v>493.8756227719391</v>
+        <v>804.565933434804</v>
       </c>
       <c r="Y6" t="n">
-        <v>286.1153240069852</v>
+        <v>804.565933434804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.58281174589897</v>
+        <v>662.7010702290729</v>
       </c>
       <c r="C7" t="n">
-        <v>90.58281174589897</v>
+        <v>493.764887301166</v>
       </c>
       <c r="D7" t="n">
-        <v>90.58281174589897</v>
+        <v>493.764887301166</v>
       </c>
       <c r="E7" t="n">
-        <v>90.58281174589897</v>
+        <v>345.8517937187729</v>
       </c>
       <c r="F7" t="n">
-        <v>90.58281174589897</v>
+        <v>198.9618462208626</v>
       </c>
       <c r="G7" t="n">
-        <v>90.58281174589897</v>
+        <v>198.9618462208626</v>
       </c>
       <c r="H7" t="n">
-        <v>90.58281174589897</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807551</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630019</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874682</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208624</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014251</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750218</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767882</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612027</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049267</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950952</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322765</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>855.4770491322765</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>855.4770491322765</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>600.7925609263897</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>311.3753908894291</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="X7" t="n">
-        <v>311.3753908894291</v>
+        <v>1065.142114202843</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.58281174589897</v>
+        <v>844.3495350593126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1564.102297760663</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1564.102297760663</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1178.314045162419</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>767.328140372811</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>351.3379503491135</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>376.295250515901</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>685.3852714985298</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.259827415493</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1798.680568975114</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2064.109040631094</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2215.262022208133</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380921</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2086.573660650152</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="X8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.758267664335</v>
+        <v>1933.064814701075</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.298865693644</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.845836412517</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9114267512657</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6739717458101</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>70.04102928676159</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>92.5640599542412</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>514.9354973067618</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>777.138473136439</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1102.473846786545</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1450.8285246273</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1747.285203042453</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2106.524031033383</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2202.732847559028</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380921</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2079.218696472988</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1884.596484064444</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>1656.496332322586</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1656.496332322586</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1402.258975594384</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1194.407475388851</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>986.6471766238974</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.7307788730139</v>
+        <v>342.788142822339</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>342.788142822339</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>339.1585876079219</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>44.35554652761843</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>60.95254262692058</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>218.0633423274036</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>474.6375091918445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>755.5481168921724</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1277.514248546132</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1461.323360659242</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="R10" t="n">
-        <v>1595.557024587026</v>
+        <v>1396.807701620024</v>
       </c>
       <c r="S10" t="n">
-        <v>1595.557024587026</v>
+        <v>1396.807701620024</v>
       </c>
       <c r="T10" t="n">
-        <v>1372.578543781762</v>
+        <v>1396.807701620024</v>
       </c>
       <c r="U10" t="n">
-        <v>1372.578543781762</v>
+        <v>1107.682380208716</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.578543781762</v>
+        <v>852.9978920028296</v>
       </c>
       <c r="W10" t="n">
-        <v>1083.161373744801</v>
+        <v>563.5807219658691</v>
       </c>
       <c r="X10" t="n">
-        <v>855.1718228467838</v>
+        <v>563.5807219658691</v>
       </c>
       <c r="Y10" t="n">
-        <v>634.3792437032537</v>
+        <v>342.788142822339</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5121,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5303,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5364,19 +5366,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2311.700279152293</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>882.6868130458045</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>732.5701736334687</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>584.6570800510756</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5704,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356194</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2266.280484787188</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2046.67901981013</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1757.603793154328</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1502.919304948441</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1213.50213491148</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>985.5125840134625</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>920.6398131926237</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>710.248605371872</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>849.3843576263199</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>269.7158417089197</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7174,31 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,13 +7259,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282754</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7405,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,16 +7499,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.53722908186</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053499</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U43" t="n">
-        <v>4218.903091397697</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>3964.21860319181</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>3674.801433154849</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>3674.801433154849</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912099</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7640,13 +7642,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528971</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944363</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463899012</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.55889958091839</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>30.3692565058945</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>142.0598724480825</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.93476969131441</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>114.1735436840662</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>108.243127252297</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>46.57372264691682</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>111.2104624337825</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.47507150177285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
-        <v>2.150513196502885</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9.000252501565711</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664557</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.96822242532676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>72.64978773649604</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.26526345294951</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>47.21554925516975</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.47507150177239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>862635.888125527</v>
+        <v>863807.9543310704</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>868058.8218435174</v>
+        <v>865764.4446572892</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125272</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427079</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731241</v>
+        <v>138712.7919296922</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>589678.7921745735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267188</v>
+        <v>60247.15959153556</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019628</v>
+        <v>33617.87336484344</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>154073.851016727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>230545.7787086358</v>
+        <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130577</v>
+        <v>170385.5244296184</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26436,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029151</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>86168.04029969321</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-331256.5964440603</v>
       </c>
       <c r="C6" t="n">
-        <v>115860.0189999701</v>
+        <v>51266.17977902258</v>
       </c>
       <c r="D6" t="n">
-        <v>54438.2725255785</v>
+        <v>199988.926492602</v>
       </c>
       <c r="E6" t="n">
-        <v>-37643.43875005376</v>
+        <v>-119836.7893000813</v>
       </c>
       <c r="F6" t="n">
         <v>469842.002874492</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.002874492</v>
+        <v>469842.0028744921</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.0028744924</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.0028744924</v>
       </c>
       <c r="J6" t="n">
-        <v>420777.0581459473</v>
+        <v>420777.0581459478</v>
       </c>
       <c r="K6" t="n">
-        <v>428224.4784218202</v>
+        <v>409594.8432829566</v>
       </c>
       <c r="L6" t="n">
-        <v>396102.700474296</v>
+        <v>436224.1295096488</v>
       </c>
       <c r="M6" t="n">
-        <v>337234.7091455654</v>
+        <v>315768.1518577656</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744921</v>
+        <v>469842.0028744923</v>
       </c>
       <c r="O6" t="n">
         <v>469842.0028744924</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744925</v>
+        <v>469842.0028744923</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955675</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>863.7717861790466</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537523</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>554.4443315952303</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826628</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219716</v>
+        <v>113.7908296814365</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>504.2037141626274</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874323</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462864</v>
+        <v>132.8291933132485</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>618.2639565044183</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874323</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462864</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>618.2639565044183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874323</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462864</v>
+        <v>132.8291933132485</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>618.2639565044183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>353.5944491598231</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>288.5579051937836</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27506,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681213</v>
+        <v>7.884010625681128</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>38.33818124377083</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>105.562745070609</v>
       </c>
       <c r="W3" t="n">
-        <v>162.2124835574739</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,10 +27593,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>173.5134149522578</v>
       </c>
       <c r="V4" t="n">
-        <v>185.078483995784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>265.1480423755418</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>220.3526406022994</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795912</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702869</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908718</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356466</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419616</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>108.8155516802271</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>145.6093921805173</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2019108882319</v>
+        <v>101.4019553566858</v>
       </c>
       <c r="I7" t="n">
-        <v>61.82744393290262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>52.10215092812547</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787245</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>55.92144486248898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>111.7383558289164</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0222133559395</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>61.0773678869776</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29697,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354038</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759783</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795342</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342063</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776128</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526252</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904189</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361773</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893193</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>397.538738878704</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369908999</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175142</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>62.9960727893427</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848481</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948323</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782919</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371924</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721892</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233634</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>238.848443869819</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117035</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375842</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721241</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536184</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122926</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022547</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103074</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020025</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603079</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729733</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319876</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920763</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871045</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>87.6722490926152</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>144.072437109891</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966477</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619601</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698589</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433949</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968693</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913307</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983731</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648365</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045765</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562966</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.472449391674556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>35.56222233248706</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>133.8716051725335</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>294.7198015566386</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>441.7085843062227</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>547.9785573766831</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>609.7317292458754</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>619.5978260799708</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>585.0686574415068</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>499.3425630845412</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>374.985469245196</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>218.1262490997771</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>79.12844051278404</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>15.20064721205538</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2777959513339645</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.857924219328515</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>17.94363653930435</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>63.96800491986336</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>175.5330947743665</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>300.014017469377</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>403.4058705169218</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>470.7556234675803</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>483.2151240436914</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>442.0474347627805</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>354.7820379873899</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>237.1623968391979</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>115.354277407081</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>34.51012749498359</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>7.488738410363618</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1222318565347708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.557621253765494</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>46.84191915869322</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>110.1238226412204</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>180.9672693011182</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>231.5757998552808</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>244.1642116243491</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>238.3585324057688</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>220.1626841231446</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>188.3872105463284</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>70.03631564658299</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>27.14509039516773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>6.655290811543471</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08496115929629976</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32084,7 +32086,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>346.7710205055862</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>477.8500485393217</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857158</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>610.0546826043645</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366847</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>533.6019216797993</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175054</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005518</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550751998</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326322</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>200.492619882638</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631461</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395864</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676326</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234344</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645038</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971056</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>101.00700489546</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318294</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155659</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887908</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>209.328451609174</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979624</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.3878680971516</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840081</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569639</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238007</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490875</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574345</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617628</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963631</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>113.6738970299523</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>221.6187332612421</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>312.2121424066958</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>379.3854960186027</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>390.1847624833799</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>354.9704460198201</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>268.1095673292716</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>152.6797793707465</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>2.540711285644932</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>48.69546810769978</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>426.6378155075966</v>
       </c>
       <c r="L9" t="n">
-        <v>328.0496171437446</v>
+        <v>264.8514907370476</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>328.621589545562</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>351.8734119603581</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>299.4511903183361</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>362.8675030211422</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>97.18062275317635</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>15.19644325443788</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>16.76464252454763</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>158.6977774752354</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>259.1658251155969</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>283.7480885861897</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>282.4907047849974</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>244.7478120371842</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>185.6657698112218</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>44.26749646134165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35504,7 +35506,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.5100553023825</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.5003028244903</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533515</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>395.0475418999251</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2092452.780458378</v>
+        <v>2088148.028219566</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9783123.223058084</v>
+        <v>9783123.223058082</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.1986582043252</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="G2" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.33592091243867</v>
-      </c>
-      <c r="I2" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.36529914368128</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2378420788162</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.8814412733158</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>112.7516665411925</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>44.52943720995735</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.5857992879388</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>89.76527357461636</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833734</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>54.02325134964345</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
@@ -1034,13 +1034,13 @@
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>106.0855909804023</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>48.80093230723474</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>90.9868458133939</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>404.2953571802866</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
-        <v>151.973757489587</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.79482782095089</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1229,10 +1229,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719211</v>
+        <v>1.000642874841196</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155172</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>3.593259662272882</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>16.63035353629422</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678468</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>106.207802455916</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>254.5882286452766</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>137.9640996397618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.84732537601442</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>244.6418937426531</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.1949878935057</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953103</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>18.70843787976815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000754</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>92.87435055577281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>93.07916359105414</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420842</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036628</v>
+        <v>414.0172523312952</v>
       </c>
       <c r="C2" t="n">
-        <v>549.2024635036628</v>
+        <v>414.0172523312952</v>
       </c>
       <c r="D2" t="n">
-        <v>549.2024635036628</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>549.2024635036628</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7826784871778</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>170.3628934706929</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985589</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201478</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036628</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036628</v>
+        <v>560.6825636487954</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330561</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843285</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389248</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T3" t="n">
-        <v>382.2164318224399</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U3" t="n">
-        <v>192.7966468059549</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V3" t="n">
-        <v>64.27357399906981</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W3" t="n">
-        <v>64.27357399906981</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="X3" t="n">
-        <v>64.27357399906981</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>644.1614988942544</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636.2117764014496</v>
+        <v>334.0548693135482</v>
       </c>
       <c r="C4" t="n">
-        <v>636.2117764014496</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D4" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035392</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330561</v>
@@ -4494,7 +4494,7 @@
         <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349386</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
         <v>285.9838492295955</v>
@@ -4521,19 +4521,19 @@
         <v>750.1023486652804</v>
       </c>
       <c r="U4" t="n">
-        <v>636.2117764014496</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V4" t="n">
-        <v>636.2117764014496</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W4" t="n">
-        <v>636.2117764014496</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X4" t="n">
-        <v>636.2117764014496</v>
+        <v>515.703334143788</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.2117764014496</v>
+        <v>515.703334143788</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.1673771602915</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="C5" t="n">
-        <v>861.1673771602915</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="D5" t="n">
-        <v>861.1673771602915</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="E5" t="n">
-        <v>861.1673771602915</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="F5" t="n">
-        <v>450.1814723706839</v>
+        <v>545.3735406119482</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1595.788559618214</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="V5" t="n">
-        <v>1332.709567064687</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="W5" t="n">
-        <v>979.9409117945731</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="X5" t="n">
-        <v>979.9409117945731</v>
+        <v>1342.1476979998</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.9409117945731</v>
+        <v>1342.1476979998</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636.3505964147359</v>
+        <v>550.5516709885109</v>
       </c>
       <c r="C6" t="n">
-        <v>461.8975671336089</v>
+        <v>376.0986417073838</v>
       </c>
       <c r="D6" t="n">
-        <v>461.8975671336089</v>
+        <v>227.1642320461326</v>
       </c>
       <c r="E6" t="n">
-        <v>302.6601121281534</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="H6" t="n">
         <v>67.92677704067707</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1631.891612370712</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1436.272889837552</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.574596246804</v>
+        <v>1208.156472968523</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.574596246804</v>
+        <v>973.0043647367804</v>
       </c>
       <c r="W6" t="n">
-        <v>1012.417433640337</v>
+        <v>718.7670080085788</v>
       </c>
       <c r="X6" t="n">
-        <v>804.565933434804</v>
+        <v>718.7670080085788</v>
       </c>
       <c r="Y6" t="n">
-        <v>804.565933434804</v>
+        <v>718.7670080085788</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7010702290729</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="C7" t="n">
-        <v>493.764887301166</v>
+        <v>914.6295166523837</v>
       </c>
       <c r="D7" t="n">
-        <v>493.764887301166</v>
+        <v>764.5128772400479</v>
       </c>
       <c r="E7" t="n">
-        <v>345.8517937187729</v>
+        <v>616.5997836576548</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9618462208626</v>
+        <v>469.7098361597445</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9618462208626</v>
+        <v>301.3880637528684</v>
       </c>
       <c r="H7" t="n">
         <v>149.6679752034537</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.13166510086</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.142114202843</v>
+        <v>1083.565699580291</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.3495350593126</v>
+        <v>1083.565699580291</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.064814701075</v>
+        <v>1249.508852582426</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.102297760663</v>
+        <v>1249.508852582426</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.102297760663</v>
+        <v>1249.508852582426</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.314045162419</v>
+        <v>863.7205999841822</v>
       </c>
       <c r="F8" t="n">
-        <v>767.328140372811</v>
+        <v>452.7346951945746</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3379503491135</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761843</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761843</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.295250515901</v>
+        <v>376.2952505159007</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985298</v>
+        <v>685.3852714985294</v>
       </c>
       <c r="M8" t="n">
         <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415493</v>
+        <v>1447.259827415492</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975114</v>
+        <v>1798.680568975115</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631094</v>
+        <v>2064.109040631093</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208133</v>
+        <v>2215.262022208132</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380921</v>
+        <v>2217.77732638092</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650152</v>
+        <v>2086.573660650151</v>
       </c>
       <c r="T8" t="n">
-        <v>1933.064814701075</v>
+        <v>1876.578506759166</v>
       </c>
       <c r="U8" t="n">
-        <v>1933.064814701075</v>
+        <v>1622.974610843506</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.064814701075</v>
+        <v>1622.974610843506</v>
       </c>
       <c r="W8" t="n">
-        <v>1933.064814701075</v>
+        <v>1622.974610843506</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.064814701075</v>
+        <v>1249.508852582426</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.064814701075</v>
+        <v>1249.508852582426</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>811.3798831139443</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>636.9268538328173</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>487.992444171566</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>328.7549891661105</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>182.2204311929955</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>45.36629690624588</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676159</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761843</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J9" t="n">
-        <v>92.5640599542412</v>
+        <v>217.3941849412459</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067618</v>
+        <v>447.5982561718728</v>
       </c>
       <c r="L9" t="n">
-        <v>777.138473136439</v>
+        <v>709.8012320015498</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.473846786545</v>
+        <v>1035.136605651656</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.8285246273</v>
+        <v>1383.49128349241</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042453</v>
+        <v>1679.947961907563</v>
       </c>
       <c r="P9" t="n">
-        <v>2106.524031033383</v>
+        <v>1898.547516174892</v>
       </c>
       <c r="Q9" t="n">
-        <v>2202.732847559028</v>
+        <v>2202.732847559027</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380921</v>
+        <v>2217.77732638092</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472988</v>
+        <v>2079.218696472987</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064444</v>
+        <v>1884.596484064443</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322586</v>
+        <v>1884.596484064443</v>
       </c>
       <c r="V9" t="n">
-        <v>1656.496332322586</v>
+        <v>1649.444375832701</v>
       </c>
       <c r="W9" t="n">
-        <v>1402.258975594384</v>
+        <v>1395.207019104499</v>
       </c>
       <c r="X9" t="n">
-        <v>1194.407475388851</v>
+        <v>1187.355518898966</v>
       </c>
       <c r="Y9" t="n">
-        <v>986.6471766238974</v>
+        <v>979.5952201340124</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.788142822339</v>
+        <v>1085.908801276853</v>
       </c>
       <c r="C10" t="n">
-        <v>342.788142822339</v>
+        <v>916.9726183489456</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079219</v>
+        <v>766.8559789366099</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255288</v>
+        <v>618.9428853542167</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761843</v>
+        <v>472.0529378563064</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761843</v>
+        <v>303.9384347202526</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761843</v>
+        <v>154.0611584150579</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761843</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692058</v>
+        <v>60.95254262692052</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274036</v>
+        <v>218.0633423274035</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918445</v>
+        <v>474.6375091918444</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921724</v>
+        <v>755.5481168921722</v>
       </c>
       <c r="N10" t="n">
         <v>1035.21391462932</v>
@@ -4986,28 +4986,28 @@
         <v>1505.14818215597</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620024</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.807701620024</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="T10" t="n">
-        <v>1396.807701620024</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="U10" t="n">
-        <v>1107.682380208716</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="V10" t="n">
-        <v>852.9978920028296</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="W10" t="n">
-        <v>563.5807219658691</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="X10" t="n">
-        <v>563.5807219658691</v>
+        <v>1488.349845250622</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.788142822339</v>
+        <v>1267.557266107092</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,22 +5296,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.073881198504</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263526</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.622995973711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>882.6868130458045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>732.5701736334687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>584.6570800510756</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2272.649715293768</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.574488637966</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1728.890000432079</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1439.472830395119</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.483279497101</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003831</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797712</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400667</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121598</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998241</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998241</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998241</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998241</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138365</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6679,61 +6679,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>416.6057892068301</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>269.7158417089197</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085632</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>187.8360202106528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>187.8360202106528</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8142,10 +8142,10 @@
         <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528971</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.9736917694438</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>147.359858416601</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>70.35678638440328</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>142.0598724480825</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>31.93476969131441</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.1735436840662</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>46.57372264691682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>111.2104624337825</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.54986409393382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.5862749664557</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891688</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.64978773649604</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.21554925516975</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125272</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296922</v>
+        <v>138712.7919296919</v>
       </c>
       <c r="E3" t="n">
         <v>589678.7921745735</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854488</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153556</v>
+        <v>60247.15959153562</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484344</v>
+        <v>33617.87336484333</v>
       </c>
       <c r="M3" t="n">
         <v>154073.851016727</v>
@@ -26426,10 +26426,10 @@
         <v>170385.5244296184</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,19 +26441,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-331256.5964440603</v>
       </c>
       <c r="C6" t="n">
-        <v>51266.17977902258</v>
+        <v>51266.17977902282</v>
       </c>
       <c r="D6" t="n">
         <v>199988.926492602</v>
       </c>
       <c r="E6" t="n">
-        <v>-119836.7893000813</v>
+        <v>-120184.1685544379</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.002874492</v>
+        <v>469494.6236201355</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.0028744921</v>
+        <v>469494.6236201353</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744924</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744924</v>
+        <v>469494.6236201353</v>
       </c>
       <c r="J6" t="n">
-        <v>420777.0581459478</v>
+        <v>420429.6788915901</v>
       </c>
       <c r="K6" t="n">
-        <v>409594.8432829566</v>
+        <v>409247.4640285996</v>
       </c>
       <c r="L6" t="n">
-        <v>436224.1295096488</v>
+        <v>435876.750255292</v>
       </c>
       <c r="M6" t="n">
-        <v>315768.1518577656</v>
+        <v>315420.7726034083</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201353</v>
       </c>
       <c r="O6" t="n">
-        <v>469842.0028744924</v>
+        <v>469494.6236201351</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201352</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790466</v>
+        <v>863.7717861790463</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952303</v>
+        <v>554.4443315952301</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814365</v>
+        <v>113.7908296814363</v>
       </c>
       <c r="E3" t="n">
         <v>504.2037141626274</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132485</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="E4" t="n">
         <v>618.2639565044183</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132487</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="M4" t="n">
         <v>618.2639565044183</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132485</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="M4" t="n">
         <v>618.2639565044183</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>237.5351834591554</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>288.5579051937836</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121489</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681128</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>105.562745070609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.8135418876038</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5134149522578</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750791</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>181.1802181790798</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.1480423755418</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>120.1324186545671</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>87.69605795450212</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>145.6093921805173</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>101.4019553566858</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>131.1802018189224</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>7.53493094317389</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787245</v>
+        <v>76.60428439787248</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.92144486248898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.7383558289164</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.29116482235094</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155173</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>145.0222133559395</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418045</v>
@@ -28067,16 +28067,16 @@
         <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>209.0793018527429</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.062432900276878e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.062432900276878e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-3.523735785918312e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-3.523735785918312e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>3.472449391674556</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248706</v>
+        <v>35.56222233248705</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725335</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
         <v>294.7198015566386</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062227</v>
+        <v>441.7085843062226</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766831</v>
+        <v>547.9785573766828</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458754</v>
+        <v>609.7317292458753</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799708</v>
+        <v>619.5978260799707</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415068</v>
+        <v>585.0686574415067</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845412</v>
+        <v>499.342563084541</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.985469245196</v>
+        <v>374.9854692451959</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997771</v>
+        <v>218.126249099777</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278404</v>
+        <v>79.12844051278401</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205538</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339645</v>
+        <v>0.2777959513339644</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,43 +31597,43 @@
         <v>1.857924219328515</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930435</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986336</v>
+        <v>63.96800491986335</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743665</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.014017469377</v>
+        <v>300.0140174693769</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169218</v>
+        <v>403.4058705169217</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675803</v>
+        <v>470.7556234675802</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436914</v>
+        <v>483.2151240436912</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627805</v>
+        <v>442.0474347627804</v>
       </c>
       <c r="P9" t="n">
         <v>354.7820379873899</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391979</v>
+        <v>237.1623968391978</v>
       </c>
       <c r="R9" t="n">
         <v>115.354277407081</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498359</v>
+        <v>34.51012749498357</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363618</v>
+        <v>7.488738410363616</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222318565347708</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765494</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
         <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869322</v>
+        <v>46.84191915869321</v>
       </c>
       <c r="J10" t="n">
         <v>110.1238226412204</v>
@@ -31688,7 +31688,7 @@
         <v>180.9672693011182</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552808</v>
+        <v>231.5757998552807</v>
       </c>
       <c r="M10" t="n">
         <v>244.1642116243491</v>
@@ -31697,25 +31697,25 @@
         <v>238.3585324057688</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231446</v>
+        <v>220.1626841231445</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463284</v>
+        <v>188.3872105463283</v>
       </c>
       <c r="Q10" t="n">
         <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658299</v>
+        <v>70.03631564658298</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516773</v>
+        <v>27.14509039516772</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543471</v>
+        <v>6.65529081154347</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629976</v>
+        <v>0.08496115929629973</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34862,10 +34862,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175054</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.08507489005538</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663201</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729573</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>213.2973839334705</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>113.6738970299523</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612421</v>
+        <v>221.618733261242</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066958</v>
+        <v>312.2121424066956</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186027</v>
+        <v>379.3854960186026</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833799</v>
+        <v>390.1847624833798</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198201</v>
+        <v>354.97044601982</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292716</v>
+        <v>268.1095673292715</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707465</v>
+        <v>152.6797793707464</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644932</v>
+        <v>2.540711285644875</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769978</v>
+        <v>174.7865034481086</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075966</v>
+        <v>232.5293648794212</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370476</v>
+        <v>264.8514907370475</v>
       </c>
       <c r="M9" t="n">
-        <v>328.621589545562</v>
+        <v>328.6215895455618</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603581</v>
+        <v>351.8734119603579</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183361</v>
+        <v>299.451190318336</v>
       </c>
       <c r="P9" t="n">
-        <v>362.8675030211422</v>
+        <v>220.8076305730596</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317635</v>
+        <v>307.2579104890254</v>
       </c>
       <c r="R9" t="n">
-        <v>15.19644325443788</v>
+        <v>15.19644325443785</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454763</v>
+        <v>16.76464252454758</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752354</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
         <v>259.1658251155969</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861897</v>
+        <v>283.7480885861896</v>
       </c>
       <c r="N10" t="n">
         <v>282.4907047849974</v>
@@ -35351,7 +35351,7 @@
         <v>185.6657698112218</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134165</v>
+        <v>44.26749646134159</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096315</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066215</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2088148.028219566</v>
+        <v>2089908.558522351</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.1986582043252</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>28.3359209124385</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>90.06435309531089</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8814412733158</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>182.5411969018617</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>44.52943720995735</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>128.4255434348596</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>89.76527357461636</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>86.99667229234184</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>54.02325134964345</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>120.6086368453543</v>
       </c>
       <c r="T7" t="n">
-        <v>90.9868458133939</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>404.2953571802866</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>248.3610830621625</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>1.000642874841196</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155176</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>79.60189861215999</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1311,7 +1311,7 @@
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>125.238909304858</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.63035353629422</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206815</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.665762779849656</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>172.3645574474306</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465642</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>171.4144753991513</v>
       </c>
       <c r="V22" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>220.6346102953103</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000754</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>78.91051008678096</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500074</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890417</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>186.0007748420842</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312952</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312952</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148102</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652804</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>738.6222485201471</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
         <v>469.7084696131274</v>
@@ -4397,64 +4397,64 @@
         <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>659.1282546296122</v>
       </c>
       <c r="W3" t="n">
-        <v>644.1614988942544</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="X3" t="n">
-        <v>644.1614988942544</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="Y3" t="n">
-        <v>644.1614988942544</v>
+        <v>469.7084696131274</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.0548693135482</v>
+        <v>376.2975162731772</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295955</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242524</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608026</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652804</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652804</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652804</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487954</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487954</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="X4" t="n">
-        <v>515.703334143788</v>
+        <v>565.7173012896619</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.703334143788</v>
+        <v>376.2975162731772</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.1476979998</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="C5" t="n">
-        <v>1342.1476979998</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.1476979998</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="E5" t="n">
-        <v>956.3594454015558</v>
+        <v>574.4378869984889</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119482</v>
+        <v>163.4519822088814</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4597,22 +4597,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1595.788559618214</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1342.1476979998</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1342.1476979998</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1342.1476979998</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="X5" t="n">
-        <v>1342.1476979998</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.1476979998</v>
+        <v>960.2261395967332</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.5516709885109</v>
+        <v>848.3960604091708</v>
       </c>
       <c r="C6" t="n">
-        <v>376.0986417073838</v>
+        <v>673.9430311280438</v>
       </c>
       <c r="D6" t="n">
-        <v>227.1642320461326</v>
+        <v>525.0086214667925</v>
       </c>
       <c r="E6" t="n">
-        <v>67.92677704067707</v>
+        <v>365.771166461337</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067707</v>
+        <v>219.236608488222</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067707</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.967182080082</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.296143033791</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1631.891612370712</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1436.272889837552</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1208.156472968523</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>973.0043647367804</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W6" t="n">
-        <v>718.7670080085788</v>
+        <v>1432.223196399726</v>
       </c>
       <c r="X6" t="n">
-        <v>718.7670080085788</v>
+        <v>1224.371696194193</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.7670080085788</v>
+        <v>1016.611397429239</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1083.565699580291</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>914.6295166523837</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>764.5128772400479</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>616.5997836576548</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7098361597445</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>301.3880637528684</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1175.471604442305</v>
+        <v>1053.644698537906</v>
       </c>
       <c r="T7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="U7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="V7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="W7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="X7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="Y7" t="n">
-        <v>1083.565699580291</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.508852582426</v>
+        <v>1580.307705445926</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.508852582426</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>1249.508852582426</v>
+        <v>853.0794898987635</v>
       </c>
       <c r="E8" t="n">
-        <v>863.7205999841822</v>
+        <v>467.2912373005194</v>
       </c>
       <c r="F8" t="n">
-        <v>452.7346951945746</v>
+        <v>56.3053325109118</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J8" t="n">
         <v>156.8927045872711</v>
@@ -4810,46 +4810,46 @@
         <v>376.2952505159007</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985294</v>
+        <v>685.3852714985292</v>
       </c>
       <c r="M8" t="n">
         <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415492</v>
+        <v>1447.259827415491</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975115</v>
+        <v>1798.680568975113</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631093</v>
+        <v>2064.109040631091</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208132</v>
+        <v>2215.26202220813</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650151</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.578506759166</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.974610843506</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="V8" t="n">
-        <v>1622.974610843506</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.974610843506</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.508852582426</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.508852582426</v>
+        <v>1966.907545510047</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>811.3798831139443</v>
+        <v>836.0546154944599</v>
       </c>
       <c r="C9" t="n">
-        <v>636.9268538328173</v>
+        <v>661.6015862133329</v>
       </c>
       <c r="D9" t="n">
-        <v>487.992444171566</v>
+        <v>512.6671765520816</v>
       </c>
       <c r="E9" t="n">
-        <v>328.7549891661105</v>
+        <v>353.4297215466262</v>
       </c>
       <c r="F9" t="n">
-        <v>182.2204311929955</v>
+        <v>206.8951635735112</v>
       </c>
       <c r="G9" t="n">
-        <v>45.36629690624588</v>
+        <v>70.04102928676156</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761841</v>
+        <v>70.04102928676156</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412459</v>
+        <v>217.3941849412458</v>
       </c>
       <c r="K9" t="n">
-        <v>447.5982561718728</v>
+        <v>639.7656222937662</v>
       </c>
       <c r="L9" t="n">
-        <v>709.8012320015498</v>
+        <v>901.968598123443</v>
       </c>
       <c r="M9" t="n">
-        <v>1035.136605651656</v>
+        <v>1227.303971773549</v>
       </c>
       <c r="N9" t="n">
-        <v>1383.49128349241</v>
+        <v>1575.658649614303</v>
       </c>
       <c r="O9" t="n">
-        <v>1679.947961907563</v>
+        <v>1872.115328029456</v>
       </c>
       <c r="P9" t="n">
-        <v>1898.547516174892</v>
+        <v>2090.714882296785</v>
       </c>
       <c r="Q9" t="n">
-        <v>2202.732847559027</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472987</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064443</v>
+        <v>2137.371368186818</v>
       </c>
       <c r="U9" t="n">
-        <v>1884.596484064443</v>
+        <v>1909.271216444959</v>
       </c>
       <c r="V9" t="n">
-        <v>1649.444375832701</v>
+        <v>1674.119108213216</v>
       </c>
       <c r="W9" t="n">
-        <v>1395.207019104499</v>
+        <v>1419.881751485015</v>
       </c>
       <c r="X9" t="n">
-        <v>1187.355518898966</v>
+        <v>1212.030251279482</v>
       </c>
       <c r="Y9" t="n">
-        <v>979.5952201340124</v>
+        <v>1004.269952514528</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1085.908801276853</v>
+        <v>976.2031893894131</v>
       </c>
       <c r="C10" t="n">
-        <v>916.9726183489456</v>
+        <v>807.2670064615062</v>
       </c>
       <c r="D10" t="n">
-        <v>766.8559789366099</v>
+        <v>657.1503670491704</v>
       </c>
       <c r="E10" t="n">
-        <v>618.9428853542167</v>
+        <v>509.2372734667773</v>
       </c>
       <c r="F10" t="n">
-        <v>472.0529378563064</v>
+        <v>362.3473259688669</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202526</v>
+        <v>194.2328228328131</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692052</v>
+        <v>60.95254262692043</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274035</v>
+        <v>218.0633423274033</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918444</v>
+        <v>474.6375091918442</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921722</v>
+        <v>755.5481168921717</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546132</v>
+        <v>1277.514248546131</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659242</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.14818215597</v>
+        <v>1378.644233363183</v>
       </c>
       <c r="V10" t="n">
-        <v>1505.14818215597</v>
+        <v>1378.644233363183</v>
       </c>
       <c r="W10" t="n">
-        <v>1505.14818215597</v>
+        <v>1378.644233363183</v>
       </c>
       <c r="X10" t="n">
-        <v>1488.349845250622</v>
+        <v>1378.644233363183</v>
       </c>
       <c r="Y10" t="n">
-        <v>1267.557266107092</v>
+        <v>1157.851654219653</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474783</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>852.3571656803509</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>702.2405262680152</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>554.3274326856221</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.4374851877117</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>240.2413859025916</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>98.52955474478969</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5244,7 +5244,7 @@
         <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="14">
@@ -5269,52 +5269,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.5558870561822</v>
+        <v>1098.667160263521</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>929.7309773356144</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232786</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408855</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429752</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578551</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000532</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2423.619666148774</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2240.764831803678</v>
+        <v>2272.857469996997</v>
       </c>
       <c r="T16" t="n">
-        <v>2021.163366826619</v>
+        <v>2272.857469996997</v>
       </c>
       <c r="U16" t="n">
-        <v>1732.088140170817</v>
+        <v>1983.782243341195</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.40365196493</v>
+        <v>1729.097755135308</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.986481927969</v>
+        <v>1729.097755135308</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9969310299521</v>
+        <v>1501.108204237291</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.2043518864219</v>
+        <v>1280.315625093761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263149</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698408</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860723</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>2023.91661074095</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1769.232122535063</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498102</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.825401600085</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.032822456555</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,31 +6244,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003831</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797712</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580257</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429802</v>
@@ -7089,58 +7089,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378165</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172278</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135318</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192412</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7642,43 +7642,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>82.9736917694438</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>75.41988959484686</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.359858416601</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>70.35678638440328</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>31.16528036211051</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>30.32522655688301</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>76.60007353871589</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.26526345294994</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.661728554214022</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.7699989900928</v>
       </c>
       <c r="V22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>65.54986409393382</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405073</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891701</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125272</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.805677833</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296919</v>
+        <v>138712.7919296915</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745735</v>
+        <v>589678.7921745738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854488</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153562</v>
+        <v>60247.15959153565</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484333</v>
+        <v>33617.87336484322</v>
       </c>
       <c r="M3" t="n">
         <v>154073.851016727</v>
@@ -26423,37 +26423,37 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296184</v>
+        <v>170385.5244296186</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969321</v>
+        <v>86168.04029969315</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331256.5964440603</v>
+        <v>-331256.5964440602</v>
       </c>
       <c r="C6" t="n">
-        <v>51266.17977902282</v>
+        <v>51266.17977902247</v>
       </c>
       <c r="D6" t="n">
         <v>199988.926492602</v>
       </c>
       <c r="E6" t="n">
-        <v>-120184.1685544379</v>
+        <v>-119871.5272255171</v>
       </c>
       <c r="F6" t="n">
-        <v>469494.6236201355</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="G6" t="n">
-        <v>469494.6236201353</v>
+        <v>469807.2649490565</v>
       </c>
       <c r="H6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="I6" t="n">
-        <v>469494.6236201353</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="J6" t="n">
-        <v>420429.6788915901</v>
+        <v>420742.3202205119</v>
       </c>
       <c r="K6" t="n">
-        <v>409247.4640285996</v>
+        <v>409560.1053575207</v>
       </c>
       <c r="L6" t="n">
-        <v>435876.750255292</v>
+        <v>436189.3915842134</v>
       </c>
       <c r="M6" t="n">
-        <v>315420.7726034083</v>
+        <v>315733.413932329</v>
       </c>
       <c r="N6" t="n">
-        <v>469494.6236201353</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="O6" t="n">
-        <v>469494.6236201351</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="P6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490566</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790463</v>
+        <v>863.771786179046</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952301</v>
+        <v>554.4443315952296</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847055</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814363</v>
+        <v>113.790829681436</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626274</v>
+        <v>504.2037141626275</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,37 +27011,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>234.0895511156618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>132.8291933132479</v>
+      </c>
+      <c r="E4" t="n">
+        <v>618.2639565044185</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C4" t="n">
-        <v>234.0895511156617</v>
-      </c>
-      <c r="D4" t="n">
-        <v>132.8291933132483</v>
-      </c>
-      <c r="E4" t="n">
-        <v>618.2639565044183</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663203</v>
-      </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132479</v>
       </c>
       <c r="M4" t="n">
         <v>618.2639565044183</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132479</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044183</v>
+        <v>618.2639565044185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.5351834591554</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>384.7619123176195</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>142.7362340541144</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8135418876038</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>24.23905889363454</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27596,16 +27596,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>181.1802181790798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>283.8621952601845</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>120.1324186545671</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>48.7336782851947</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>87.69605795450212</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>79.83888752594723</v>
       </c>
       <c r="T7" t="n">
-        <v>131.1802018189224</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.53493094317389</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787248</v>
+        <v>76.60428439787253</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>137.8768555938911</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29116482235094</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155173</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>113.074091672298</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
         <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>160.9951588923366</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>209.0793018527429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.502430364027909e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.062432900276878e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.062432900276878e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.983060707359229e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.983060707359229e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.523735785918312e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-3.523735785918312e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30209,7 +30209,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674556</v>
+        <v>3.472449391674554</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248705</v>
+        <v>35.56222233248704</v>
       </c>
       <c r="I8" t="n">
         <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566386</v>
+        <v>294.7198015566385</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062226</v>
+        <v>441.7085843062224</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766828</v>
+        <v>547.9785573766827</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458753</v>
+        <v>609.731729245875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799707</v>
+        <v>619.5978260799703</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415067</v>
+        <v>585.0686574415065</v>
       </c>
       <c r="P8" t="n">
-        <v>499.342563084541</v>
+        <v>499.3425630845409</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451959</v>
+        <v>374.9854692451958</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099777</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278401</v>
+        <v>79.12844051278398</v>
       </c>
       <c r="T8" t="n">
         <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339644</v>
+        <v>0.2777959513339643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328515</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
         <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986335</v>
+        <v>63.96800491986332</v>
       </c>
       <c r="J9" t="n">
         <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693769</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169217</v>
+        <v>403.4058705169215</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675802</v>
+        <v>470.75562346758</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436912</v>
+        <v>483.215124043691</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627804</v>
+        <v>442.0474347627803</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873899</v>
+        <v>354.7820379873897</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391978</v>
+        <v>237.1623968391977</v>
       </c>
       <c r="R9" t="n">
-        <v>115.354277407081</v>
+        <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498357</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363616</v>
+        <v>7.488738410363613</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347708</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869321</v>
+        <v>46.84191915869319</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412204</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011182</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552807</v>
+        <v>231.5757998552806</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243491</v>
+        <v>244.164211624349</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057688</v>
+        <v>238.3585324057687</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231445</v>
+        <v>220.1626841231444</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463283</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
         <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658298</v>
+        <v>70.03631564658295</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516772</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65529081154347</v>
+        <v>6.655290811543467</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629973</v>
+        <v>0.08496115929629969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.34935846016</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950826</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33271,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>618.3341264639744</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005538</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.0850748900551</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2973839334705</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299523</v>
+        <v>113.6738970299522</v>
       </c>
       <c r="K8" t="n">
-        <v>221.618733261242</v>
+        <v>221.6187332612419</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066956</v>
+        <v>312.2121424066955</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186026</v>
+        <v>379.3854960186023</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833798</v>
+        <v>390.1847624833794</v>
       </c>
       <c r="O8" t="n">
-        <v>354.97044601982</v>
+        <v>354.9704460198197</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292715</v>
+        <v>268.1095673292713</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707464</v>
+        <v>152.6797793707463</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644875</v>
+        <v>2.54071128564479</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481086</v>
+        <v>174.7865034481085</v>
       </c>
       <c r="K9" t="n">
-        <v>232.5293648794212</v>
+        <v>426.6378155075964</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370475</v>
+        <v>264.8514907370473</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455618</v>
+        <v>328.6215895455617</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603579</v>
+        <v>351.8734119603578</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318336</v>
+        <v>299.4511903183358</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730596</v>
+        <v>220.8076305730594</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890254</v>
+        <v>128.3459031152867</v>
       </c>
       <c r="R9" t="n">
-        <v>15.19644325443785</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454758</v>
+        <v>16.76464252454754</v>
       </c>
       <c r="K10" t="n">
         <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155969</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861896</v>
+        <v>283.7480885861895</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849974</v>
+        <v>282.4907047849973</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371842</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112218</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134159</v>
+        <v>44.26749646134157</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288382</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802859</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>37.76383318075232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096315</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>476.2000925419561</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066215</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
